--- a/generated-tests/firebrigade/frontend/direct/metrics.xlsx
+++ b/generated-tests/firebrigade/frontend/direct/metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\Desktop\Bachelor-Arbeit\test-generation-app\generated-tests\firebrigade\frontend\direct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03CCF90-B42C-4B0B-9064-7B814DD8E625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006B3B41-9C2A-4606-BE38-8956B765AC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>Test</t>
   </si>
@@ -90,6 +90,33 @@
   </si>
   <si>
     <t>Bugs/Smells</t>
+  </si>
+  <si>
+    <t>create-view-deployment-2.spec</t>
+  </si>
+  <si>
+    <t>calendar</t>
+  </si>
+  <si>
+    <t>tasks</t>
+  </si>
+  <si>
+    <t>blackboard-calendar-member-1.spec</t>
+  </si>
+  <si>
+    <t>black-board-and-calendar</t>
+  </si>
+  <si>
+    <t>member</t>
+  </si>
+  <si>
+    <t>overview-1.spec</t>
+  </si>
+  <si>
+    <t>overview-2.spec</t>
+  </si>
+  <si>
+    <t>blackboard-calendar-member-2.spec</t>
   </si>
 </sst>
 </file>
@@ -351,7 +378,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -693,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE60AEF-AC79-4BE5-B0FB-2A2449C95BDE}">
   <dimension ref="D5:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,10 +848,10 @@
         <v>4</v>
       </c>
       <c r="K9" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L9" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M9" s="6"/>
     </row>
@@ -871,10 +898,10 @@
         <v>2</v>
       </c>
       <c r="K11" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L11" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M11" s="6">
         <v>1</v>
@@ -921,23 +948,49 @@
       <c r="M13" s="7"/>
     </row>
     <row r="14" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D14" s="10"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
+      <c r="D14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="19">
+        <v>72</v>
+      </c>
+      <c r="G14" s="25">
+        <v>62</v>
+      </c>
+      <c r="H14" s="20">
+        <v>73</v>
+      </c>
+      <c r="I14" s="6">
+        <v>3</v>
+      </c>
+      <c r="J14" s="6">
+        <v>3</v>
+      </c>
+      <c r="K14" s="6">
+        <v>9</v>
+      </c>
+      <c r="L14" s="6">
+        <v>11</v>
+      </c>
+      <c r="M14" s="6"/>
     </row>
     <row r="15" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D15" s="10"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="E15" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="19">
+        <v>51</v>
+      </c>
+      <c r="G15" s="25">
+        <v>35</v>
+      </c>
+      <c r="H15" s="20">
+        <v>49</v>
+      </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -945,35 +998,69 @@
       <c r="M15" s="8"/>
     </row>
     <row r="16" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D16" s="10"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="23">
+        <v>82</v>
+      </c>
+      <c r="G16" s="3">
+        <v>57</v>
+      </c>
+      <c r="H16" s="24">
+        <v>76</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
     </row>
     <row r="17" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D17" s="10"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
+      <c r="D17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="21">
+        <v>89</v>
+      </c>
+      <c r="G17" s="2">
+        <v>64</v>
+      </c>
+      <c r="H17" s="22">
+        <v>84</v>
+      </c>
+      <c r="I17" s="6">
+        <v>7</v>
+      </c>
+      <c r="J17" s="6">
+        <v>7</v>
+      </c>
+      <c r="K17" s="6">
+        <v>7</v>
+      </c>
+      <c r="L17" s="6">
+        <v>12</v>
+      </c>
+      <c r="M17" s="6"/>
     </row>
     <row r="18" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D18" s="10"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="20"/>
+      <c r="E18" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="19">
+        <v>92</v>
+      </c>
+      <c r="G18" s="25">
+        <v>70</v>
+      </c>
+      <c r="H18" s="20">
+        <v>89</v>
+      </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -981,35 +1068,69 @@
       <c r="M18" s="8"/>
     </row>
     <row r="19" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D19" s="10"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="23">
+        <v>82</v>
+      </c>
+      <c r="G19" s="3">
+        <v>70</v>
+      </c>
+      <c r="H19" s="24">
+        <v>74</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
     </row>
     <row r="20" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D20" s="10"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
+      <c r="D20" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="21">
+        <v>91</v>
+      </c>
+      <c r="G20" s="2">
+        <v>64</v>
+      </c>
+      <c r="H20" s="22">
+        <v>85</v>
+      </c>
+      <c r="I20" s="6">
+        <v>7</v>
+      </c>
+      <c r="J20" s="6">
+        <v>7</v>
+      </c>
+      <c r="K20" s="6">
+        <v>6</v>
+      </c>
+      <c r="L20" s="6">
+        <v>7</v>
+      </c>
+      <c r="M20" s="6"/>
     </row>
     <row r="21" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D21" s="10"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="20"/>
+      <c r="E21" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="19">
+        <v>83</v>
+      </c>
+      <c r="G21" s="25">
+        <v>60</v>
+      </c>
+      <c r="H21" s="20">
+        <v>71</v>
+      </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
@@ -1017,64 +1138,126 @@
       <c r="M21" s="8"/>
     </row>
     <row r="22" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D22" s="10"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="23">
+        <v>73</v>
+      </c>
+      <c r="G22" s="3">
+        <v>50</v>
+      </c>
+      <c r="H22" s="24">
+        <v>64</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
     </row>
     <row r="23" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D23" s="10"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
+      <c r="D23" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="21">
+        <v>63</v>
+      </c>
+      <c r="G23" s="2">
+        <v>36</v>
+      </c>
+      <c r="H23" s="22">
+        <v>55</v>
+      </c>
+      <c r="I23" s="6">
+        <v>4</v>
+      </c>
+      <c r="J23" s="6">
+        <v>4</v>
+      </c>
+      <c r="K23" s="6">
+        <v>6</v>
+      </c>
+      <c r="L23" s="6">
+        <v>9</v>
+      </c>
+      <c r="M23" s="6"/>
     </row>
     <row r="24" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D24" s="10"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="23">
+        <v>68</v>
+      </c>
+      <c r="G24" s="3">
+        <v>58</v>
+      </c>
+      <c r="H24" s="24">
+        <v>70</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
     </row>
     <row r="25" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D25" s="10"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
+      <c r="D25" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="21">
+        <v>72</v>
+      </c>
+      <c r="G25" s="2">
+        <v>36</v>
+      </c>
+      <c r="H25" s="22">
+        <v>67</v>
+      </c>
+      <c r="I25" s="6">
+        <v>5</v>
+      </c>
+      <c r="J25" s="6">
+        <v>4</v>
+      </c>
+      <c r="K25" s="6">
+        <v>9</v>
+      </c>
+      <c r="L25" s="6">
+        <v>9</v>
+      </c>
+      <c r="M25" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D26" s="10"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="23">
+        <v>70</v>
+      </c>
+      <c r="G26" s="3">
+        <v>58</v>
+      </c>
+      <c r="H26" s="24">
+        <v>68</v>
+      </c>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
     </row>
     <row r="27" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D27" s="10"/>

--- a/generated-tests/firebrigade/frontend/direct/metrics.xlsx
+++ b/generated-tests/firebrigade/frontend/direct/metrics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\Desktop\Bachelor-Arbeit\test-generation-app\generated-tests\firebrigade\frontend\direct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006B3B41-9C2A-4606-BE38-8956B765AC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B68E81-114A-4B28-8CBF-A1580B437507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>Test</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>blackboard-calendar-member-2.spec</t>
+  </si>
+  <si>
+    <t>Summe</t>
+  </si>
+  <si>
+    <t>Durchschnitt</t>
   </si>
 </sst>
 </file>
@@ -147,7 +153,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,8 +184,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -348,11 +360,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -379,6 +443,15 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -718,20 +791,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE60AEF-AC79-4BE5-B0FB-2A2449C95BDE}">
-  <dimension ref="D5:M32"/>
+  <dimension ref="C3:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="60.140625" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="13" width="15.7109375" customWidth="1"/>
+    <col min="6" max="16" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O3" s="34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="26"/>
       <c r="D5" s="9" t="s">
         <v>0</v>
       </c>
@@ -762,8 +842,18 @@
       <c r="M5" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N5" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C6" s="26"/>
       <c r="D6" s="10"/>
       <c r="E6" s="14"/>
       <c r="F6" s="19"/>
@@ -774,8 +864,12 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N6" s="19"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="20"/>
+    </row>
+    <row r="7" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C7" s="26"/>
       <c r="D7" s="11" t="s">
         <v>7</v>
       </c>
@@ -804,8 +898,21 @@
         <v>5</v>
       </c>
       <c r="M7" s="6"/>
-    </row>
-    <row r="8" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N7" s="21">
+        <f>ROUND(AVERAGE(F7:F8),0)</f>
+        <v>68</v>
+      </c>
+      <c r="O7" s="2">
+        <f>ROUND(AVERAGE(G7:G8),0)</f>
+        <v>58</v>
+      </c>
+      <c r="P7" s="22">
+        <f>ROUND(AVERAGE(H7:H8),0)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C8" s="26"/>
       <c r="D8" s="12"/>
       <c r="E8" s="16" t="s">
         <v>6</v>
@@ -824,8 +931,12 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N8" s="23"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="24"/>
+    </row>
+    <row r="9" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C9" s="26"/>
       <c r="D9" s="11" t="s">
         <v>8</v>
       </c>
@@ -854,8 +965,21 @@
         <v>6</v>
       </c>
       <c r="M9" s="6"/>
-    </row>
-    <row r="10" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N9" s="21">
+        <f>ROUND(AVERAGE(F9:F10),0)</f>
+        <v>65</v>
+      </c>
+      <c r="O9" s="2">
+        <f>ROUND(AVERAGE(G9:G10),0)</f>
+        <v>52</v>
+      </c>
+      <c r="P9" s="22">
+        <f>ROUND(AVERAGE(H9:H10),0)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C10" s="26"/>
       <c r="D10" s="12"/>
       <c r="E10" s="16" t="s">
         <v>6</v>
@@ -874,8 +998,12 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-    </row>
-    <row r="11" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N10" s="23"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="24"/>
+    </row>
+    <row r="11" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C11" s="26"/>
       <c r="D11" s="10" t="s">
         <v>9</v>
       </c>
@@ -906,8 +1034,21 @@
       <c r="M11" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N11" s="19">
+        <f>ROUND(AVERAGE(F11:F13),0)</f>
+        <v>68</v>
+      </c>
+      <c r="O11" s="25">
+        <f>ROUND(AVERAGE(G11:G13),0)</f>
+        <v>47</v>
+      </c>
+      <c r="P11" s="20">
+        <f>ROUND(AVERAGE(H11:H13),0)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C12" s="26"/>
       <c r="D12" s="10"/>
       <c r="E12" s="14" t="s">
         <v>11</v>
@@ -926,8 +1067,12 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
-    </row>
-    <row r="13" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N12" s="19"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="20"/>
+    </row>
+    <row r="13" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C13" s="26"/>
       <c r="D13" s="12"/>
       <c r="E13" s="16" t="s">
         <v>12</v>
@@ -946,8 +1091,12 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-    </row>
-    <row r="14" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N13" s="23"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="24"/>
+    </row>
+    <row r="14" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C14" s="26"/>
       <c r="D14" s="10" t="s">
         <v>18</v>
       </c>
@@ -976,8 +1125,21 @@
         <v>11</v>
       </c>
       <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N14" s="19">
+        <f>ROUND(AVERAGE(F14:F16),0)</f>
+        <v>68</v>
+      </c>
+      <c r="O14" s="25">
+        <f>ROUND(AVERAGE(G14:G16),0)</f>
+        <v>51</v>
+      </c>
+      <c r="P14" s="20">
+        <f>ROUND(AVERAGE(H14:H16),0)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C15" s="26"/>
       <c r="D15" s="10"/>
       <c r="E15" s="14" t="s">
         <v>11</v>
@@ -996,8 +1158,12 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
-    </row>
-    <row r="16" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N15" s="19"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="20"/>
+    </row>
+    <row r="16" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C16" s="26"/>
       <c r="D16" s="12"/>
       <c r="E16" s="16" t="s">
         <v>12</v>
@@ -1016,8 +1182,12 @@
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N16" s="23"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="24"/>
+    </row>
+    <row r="17" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C17" s="26"/>
       <c r="D17" s="11" t="s">
         <v>24</v>
       </c>
@@ -1046,8 +1216,21 @@
         <v>12</v>
       </c>
       <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N17" s="21">
+        <f>ROUND(AVERAGE(F17:F19),0)</f>
+        <v>88</v>
+      </c>
+      <c r="O17" s="2">
+        <f>ROUND(AVERAGE(G17:G19),0)</f>
+        <v>68</v>
+      </c>
+      <c r="P17" s="22">
+        <f>ROUND(AVERAGE(H17:H19),0)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C18" s="26"/>
       <c r="D18" s="10"/>
       <c r="E18" s="14" t="s">
         <v>19</v>
@@ -1066,8 +1249,12 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
-    </row>
-    <row r="19" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N18" s="19"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="20"/>
+    </row>
+    <row r="19" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C19" s="26"/>
       <c r="D19" s="12"/>
       <c r="E19" s="16" t="s">
         <v>20</v>
@@ -1086,8 +1273,12 @@
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N19" s="23"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="24"/>
+    </row>
+    <row r="20" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C20" s="26"/>
       <c r="D20" s="11" t="s">
         <v>25</v>
       </c>
@@ -1116,8 +1307,21 @@
         <v>7</v>
       </c>
       <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N20" s="21">
+        <f>ROUND(AVERAGE(F20:F22),0)</f>
+        <v>82</v>
+      </c>
+      <c r="O20" s="2">
+        <f>ROUND(AVERAGE(G20:G22),0)</f>
+        <v>58</v>
+      </c>
+      <c r="P20" s="22">
+        <f>ROUND(AVERAGE(H20:H22),0)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C21" s="26"/>
       <c r="D21" s="10"/>
       <c r="E21" s="14" t="s">
         <v>19</v>
@@ -1136,8 +1340,12 @@
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
-    </row>
-    <row r="22" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N21" s="19"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="20"/>
+    </row>
+    <row r="22" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C22" s="26"/>
       <c r="D22" s="12"/>
       <c r="E22" s="16" t="s">
         <v>20</v>
@@ -1156,8 +1364,12 @@
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N22" s="23"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="24"/>
+    </row>
+    <row r="23" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C23" s="26"/>
       <c r="D23" s="11" t="s">
         <v>21</v>
       </c>
@@ -1186,8 +1398,21 @@
         <v>9</v>
       </c>
       <c r="M23" s="6"/>
-    </row>
-    <row r="24" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N23" s="21">
+        <f>ROUND(AVERAGE(F23:F24),0)</f>
+        <v>66</v>
+      </c>
+      <c r="O23" s="2">
+        <f>ROUND(AVERAGE(G23:G24),0)</f>
+        <v>47</v>
+      </c>
+      <c r="P23" s="22">
+        <f>ROUND(AVERAGE(H23:H24),0)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C24" s="26"/>
       <c r="D24" s="12"/>
       <c r="E24" s="16" t="s">
         <v>23</v>
@@ -1206,8 +1431,12 @@
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-    </row>
-    <row r="25" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N24" s="23"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="24"/>
+    </row>
+    <row r="25" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C25" s="26"/>
       <c r="D25" s="11" t="s">
         <v>26</v>
       </c>
@@ -1238,8 +1467,21 @@
       <c r="M25" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N25" s="21">
+        <f>ROUND(AVERAGE(F25:F26),0)</f>
+        <v>71</v>
+      </c>
+      <c r="O25" s="2">
+        <f>ROUND(AVERAGE(G25:G26),0)</f>
+        <v>47</v>
+      </c>
+      <c r="P25" s="22">
+        <f>ROUND(AVERAGE(H25:H26),0)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C26" s="26"/>
       <c r="D26" s="12"/>
       <c r="E26" s="16" t="s">
         <v>23</v>
@@ -1258,8 +1500,12 @@
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-    </row>
-    <row r="27" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N26" s="23"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="24"/>
+    </row>
+    <row r="27" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C27" s="26"/>
       <c r="D27" s="10"/>
       <c r="E27" s="14"/>
       <c r="F27" s="19"/>
@@ -1270,66 +1516,66 @@
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
-    </row>
-    <row r="28" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D28" s="10"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-    </row>
-    <row r="29" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D29" s="10"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-    </row>
-    <row r="30" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D30" s="10"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-    </row>
-    <row r="31" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D31" s="10"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-    </row>
-    <row r="32" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D32" s="10"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="20"/>
+    </row>
+    <row r="28" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C28" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="28"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="33">
+        <f>SUM(I7:I25)</f>
+        <v>35</v>
+      </c>
+      <c r="J28" s="33">
+        <f>SUM(J7:J25)</f>
+        <v>34</v>
+      </c>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="32"/>
+    </row>
+    <row r="29" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C29" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="28"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33">
+        <f>ROUND(AVERAGE(K7:K25),0)</f>
+        <v>7</v>
+      </c>
+      <c r="L29" s="33">
+        <f>ROUND(AVERAGE(L7:L25),0)</f>
+        <v>8</v>
+      </c>
+      <c r="M29" s="33"/>
+      <c r="N29" s="30">
+        <f>ROUND(AVERAGE(N7:N25),0)</f>
+        <v>72</v>
+      </c>
+      <c r="O29" s="31">
+        <f>ROUND(AVERAGE(O7:O25),0)</f>
+        <v>54</v>
+      </c>
+      <c r="P29" s="32">
+        <f>ROUND(AVERAGE(P7:P25),0)</f>
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/generated-tests/firebrigade/frontend/direct/metrics.xlsx
+++ b/generated-tests/firebrigade/frontend/direct/metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\Desktop\Bachelor-Arbeit\test-generation-app\generated-tests\firebrigade\frontend\direct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B68E81-114A-4B28-8CBF-A1580B437507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3A6DA1-C3B0-4895-9C1F-33C7F32DA307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>Test</t>
   </si>
@@ -123,6 +123,18 @@
   </si>
   <si>
     <t>Durchschnitt</t>
+  </si>
+  <si>
+    <t>abgedeckt</t>
+  </si>
+  <si>
+    <t>insgesamt</t>
+  </si>
+  <si>
+    <t>fehlend</t>
+  </si>
+  <si>
+    <t>Pfade</t>
   </si>
 </sst>
 </file>
@@ -791,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE60AEF-AC79-4BE5-B0FB-2A2449C95BDE}">
-  <dimension ref="C3:P29"/>
+  <dimension ref="C3:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,15 +814,19 @@
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="60.140625" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="16" width="15.7109375" customWidth="1"/>
+    <col min="6" max="18" width="15.7109375" customWidth="1"/>
+    <col min="19" max="19" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="O3" s="34" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="3:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R3" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="3:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="26"/>
       <c r="D5" s="9" t="s">
         <v>0</v>
@@ -851,8 +867,17 @@
       <c r="P5" s="18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C6" s="26"/>
       <c r="D6" s="10"/>
       <c r="E6" s="14"/>
@@ -867,8 +892,11 @@
       <c r="N6" s="19"/>
       <c r="O6" s="25"/>
       <c r="P6" s="20"/>
-    </row>
-    <row r="7" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+    </row>
+    <row r="7" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C7" s="26"/>
       <c r="D7" s="11" t="s">
         <v>7</v>
@@ -910,8 +938,11 @@
         <f>ROUND(AVERAGE(H7:H8),0)</f>
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+    </row>
+    <row r="8" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C8" s="26"/>
       <c r="D8" s="12"/>
       <c r="E8" s="16" t="s">
@@ -934,8 +965,11 @@
       <c r="N8" s="23"/>
       <c r="O8" s="3"/>
       <c r="P8" s="24"/>
-    </row>
-    <row r="9" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+    </row>
+    <row r="9" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C9" s="26"/>
       <c r="D9" s="11" t="s">
         <v>8</v>
@@ -977,8 +1011,11 @@
         <f>ROUND(AVERAGE(H9:H10),0)</f>
         <v>64</v>
       </c>
-    </row>
-    <row r="10" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+    </row>
+    <row r="10" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C10" s="26"/>
       <c r="D10" s="12"/>
       <c r="E10" s="16" t="s">
@@ -1001,8 +1038,11 @@
       <c r="N10" s="23"/>
       <c r="O10" s="3"/>
       <c r="P10" s="24"/>
-    </row>
-    <row r="11" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+    </row>
+    <row r="11" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C11" s="26"/>
       <c r="D11" s="10" t="s">
         <v>9</v>
@@ -1046,8 +1086,11 @@
         <f>ROUND(AVERAGE(H11:H13),0)</f>
         <v>66</v>
       </c>
-    </row>
-    <row r="12" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+    </row>
+    <row r="12" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C12" s="26"/>
       <c r="D12" s="10"/>
       <c r="E12" s="14" t="s">
@@ -1070,8 +1113,11 @@
       <c r="N12" s="19"/>
       <c r="O12" s="25"/>
       <c r="P12" s="20"/>
-    </row>
-    <row r="13" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+    </row>
+    <row r="13" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C13" s="26"/>
       <c r="D13" s="12"/>
       <c r="E13" s="16" t="s">
@@ -1094,8 +1140,11 @@
       <c r="N13" s="23"/>
       <c r="O13" s="3"/>
       <c r="P13" s="24"/>
-    </row>
-    <row r="14" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+    </row>
+    <row r="14" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C14" s="26"/>
       <c r="D14" s="10" t="s">
         <v>18</v>
@@ -1137,8 +1186,11 @@
         <f>ROUND(AVERAGE(H14:H16),0)</f>
         <v>66</v>
       </c>
-    </row>
-    <row r="15" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+    </row>
+    <row r="15" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C15" s="26"/>
       <c r="D15" s="10"/>
       <c r="E15" s="14" t="s">
@@ -1161,8 +1213,11 @@
       <c r="N15" s="19"/>
       <c r="O15" s="25"/>
       <c r="P15" s="20"/>
-    </row>
-    <row r="16" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+    </row>
+    <row r="16" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C16" s="26"/>
       <c r="D16" s="12"/>
       <c r="E16" s="16" t="s">
@@ -1185,8 +1240,11 @@
       <c r="N16" s="23"/>
       <c r="O16" s="3"/>
       <c r="P16" s="24"/>
-    </row>
-    <row r="17" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+    </row>
+    <row r="17" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C17" s="26"/>
       <c r="D17" s="11" t="s">
         <v>24</v>
@@ -1228,8 +1286,11 @@
         <f>ROUND(AVERAGE(H17:H19),0)</f>
         <v>82</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+    </row>
+    <row r="18" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C18" s="26"/>
       <c r="D18" s="10"/>
       <c r="E18" s="14" t="s">
@@ -1252,8 +1313,11 @@
       <c r="N18" s="19"/>
       <c r="O18" s="25"/>
       <c r="P18" s="20"/>
-    </row>
-    <row r="19" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+    </row>
+    <row r="19" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C19" s="26"/>
       <c r="D19" s="12"/>
       <c r="E19" s="16" t="s">
@@ -1276,8 +1340,11 @@
       <c r="N19" s="23"/>
       <c r="O19" s="3"/>
       <c r="P19" s="24"/>
-    </row>
-    <row r="20" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+    </row>
+    <row r="20" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C20" s="26"/>
       <c r="D20" s="11" t="s">
         <v>25</v>
@@ -1319,8 +1386,11 @@
         <f>ROUND(AVERAGE(H20:H22),0)</f>
         <v>73</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+    </row>
+    <row r="21" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C21" s="26"/>
       <c r="D21" s="10"/>
       <c r="E21" s="14" t="s">
@@ -1343,8 +1413,11 @@
       <c r="N21" s="19"/>
       <c r="O21" s="25"/>
       <c r="P21" s="20"/>
-    </row>
-    <row r="22" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+    </row>
+    <row r="22" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C22" s="26"/>
       <c r="D22" s="12"/>
       <c r="E22" s="16" t="s">
@@ -1367,8 +1440,11 @@
       <c r="N22" s="23"/>
       <c r="O22" s="3"/>
       <c r="P22" s="24"/>
-    </row>
-    <row r="23" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+    </row>
+    <row r="23" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C23" s="26"/>
       <c r="D23" s="11" t="s">
         <v>21</v>
@@ -1410,8 +1486,11 @@
         <f>ROUND(AVERAGE(H23:H24),0)</f>
         <v>63</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+    </row>
+    <row r="24" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C24" s="26"/>
       <c r="D24" s="12"/>
       <c r="E24" s="16" t="s">
@@ -1434,8 +1513,11 @@
       <c r="N24" s="23"/>
       <c r="O24" s="3"/>
       <c r="P24" s="24"/>
-    </row>
-    <row r="25" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+    </row>
+    <row r="25" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C25" s="26"/>
       <c r="D25" s="11" t="s">
         <v>26</v>
@@ -1479,8 +1561,11 @@
         <f>ROUND(AVERAGE(H25:H26),0)</f>
         <v>68</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+    </row>
+    <row r="26" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C26" s="26"/>
       <c r="D26" s="12"/>
       <c r="E26" s="16" t="s">
@@ -1503,8 +1588,11 @@
       <c r="N26" s="23"/>
       <c r="O26" s="3"/>
       <c r="P26" s="24"/>
-    </row>
-    <row r="27" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+    </row>
+    <row r="27" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C27" s="26"/>
       <c r="D27" s="10"/>
       <c r="E27" s="14"/>
@@ -1519,8 +1607,11 @@
       <c r="N27" s="19"/>
       <c r="O27" s="25"/>
       <c r="P27" s="20"/>
-    </row>
-    <row r="28" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+    </row>
+    <row r="28" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C28" s="27" t="s">
         <v>27</v>
       </c>
@@ -1543,8 +1634,11 @@
       <c r="N28" s="30"/>
       <c r="O28" s="31"/>
       <c r="P28" s="32"/>
-    </row>
-    <row r="29" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q28" s="33"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="33"/>
+    </row>
+    <row r="29" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C29" s="27" t="s">
         <v>28</v>
       </c>
@@ -1576,6 +1670,9 @@
         <f>ROUND(AVERAGE(P7:P25),0)</f>
         <v>69</v>
       </c>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/generated-tests/firebrigade/frontend/direct/metrics.xlsx
+++ b/generated-tests/firebrigade/frontend/direct/metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\Desktop\Bachelor-Arbeit\test-generation-app\generated-tests\firebrigade\frontend\direct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3A6DA1-C3B0-4895-9C1F-33C7F32DA307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6496B227-1422-45F4-87E6-48759A120FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>Test</t>
   </si>
@@ -135,6 +135,24 @@
   </si>
   <si>
     <t>Pfade</t>
+  </si>
+  <si>
+    <t>Wesentliche</t>
+  </si>
+  <si>
+    <t>Confirm fire brigade</t>
+  </si>
+  <si>
+    <t>Create appointment, Assign task, Take task, Create task in district, Create</t>
+  </si>
+  <si>
+    <t>appointment in district, Finish task, Navigate from task to member</t>
+  </si>
+  <si>
+    <t>Finish task, Navigate from task to member</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assign task, Take task, Create task in district, Create appointment in district, </t>
   </si>
 </sst>
 </file>
@@ -805,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE60AEF-AC79-4BE5-B0FB-2A2449C95BDE}">
   <dimension ref="C3:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,12 +833,15 @@
     <col min="4" max="4" width="60.140625" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" customWidth="1"/>
     <col min="6" max="18" width="15.7109375" customWidth="1"/>
-    <col min="19" max="19" width="30.7109375" customWidth="1"/>
+    <col min="19" max="19" width="85.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="O3" s="34" t="s">
         <v>28</v>
+      </c>
+      <c r="Q3" s="34" t="s">
+        <v>33</v>
       </c>
       <c r="R3" s="34" t="s">
         <v>32</v>
@@ -938,8 +959,12 @@
         <f>ROUND(AVERAGE(H7:H8),0)</f>
         <v>68</v>
       </c>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
+      <c r="Q7" s="6">
+        <v>3</v>
+      </c>
+      <c r="R7" s="6">
+        <v>3</v>
+      </c>
       <c r="S7" s="6"/>
     </row>
     <row r="8" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
@@ -1011,9 +1036,15 @@
         <f>ROUND(AVERAGE(H9:H10),0)</f>
         <v>64</v>
       </c>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
+      <c r="Q9" s="6">
+        <v>2</v>
+      </c>
+      <c r="R9" s="6">
+        <v>3</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C10" s="26"/>
@@ -1086,8 +1117,12 @@
         <f>ROUND(AVERAGE(H11:H13),0)</f>
         <v>66</v>
       </c>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
+      <c r="Q11" s="6">
+        <v>3</v>
+      </c>
+      <c r="R11" s="6">
+        <v>3</v>
+      </c>
       <c r="S11" s="6"/>
     </row>
     <row r="12" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
@@ -1186,8 +1221,12 @@
         <f>ROUND(AVERAGE(H14:H16),0)</f>
         <v>66</v>
       </c>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
+      <c r="Q14" s="6">
+        <v>3</v>
+      </c>
+      <c r="R14" s="6">
+        <v>3</v>
+      </c>
       <c r="S14" s="6"/>
     </row>
     <row r="15" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
@@ -1286,8 +1325,12 @@
         <f>ROUND(AVERAGE(H17:H19),0)</f>
         <v>82</v>
       </c>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
+      <c r="Q17" s="6">
+        <v>1</v>
+      </c>
+      <c r="R17" s="6">
+        <v>1</v>
+      </c>
       <c r="S17" s="6"/>
     </row>
     <row r="18" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
@@ -1386,8 +1429,12 @@
         <f>ROUND(AVERAGE(H20:H22),0)</f>
         <v>73</v>
       </c>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
+      <c r="Q20" s="6">
+        <v>1</v>
+      </c>
+      <c r="R20" s="6">
+        <v>1</v>
+      </c>
       <c r="S20" s="6"/>
     </row>
     <row r="21" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
@@ -1486,9 +1533,15 @@
         <f>ROUND(AVERAGE(H23:H24),0)</f>
         <v>63</v>
       </c>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
+      <c r="Q23" s="6">
+        <v>1</v>
+      </c>
+      <c r="R23" s="6">
+        <v>8</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="24" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C24" s="26"/>
@@ -1515,7 +1568,9 @@
       <c r="P24" s="24"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
+      <c r="S24" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="25" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C25" s="26"/>
@@ -1561,9 +1616,15 @@
         <f>ROUND(AVERAGE(H25:H26),0)</f>
         <v>68</v>
       </c>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
+      <c r="Q25" s="6">
+        <v>2</v>
+      </c>
+      <c r="R25" s="6">
+        <v>8</v>
+      </c>
+      <c r="S25" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="26" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C26" s="26"/>
@@ -1590,7 +1651,9 @@
       <c r="P26" s="24"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
+      <c r="S26" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="27" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C27" s="26"/>

--- a/generated-tests/firebrigade/frontend/direct/metrics.xlsx
+++ b/generated-tests/firebrigade/frontend/direct/metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\Desktop\Bachelor-Arbeit\test-generation-app\generated-tests\firebrigade\frontend\direct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6496B227-1422-45F4-87E6-48759A120FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8E8957-DD54-44F5-A5DC-70FB8C4A9DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -823,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE60AEF-AC79-4BE5-B0FB-2A2449C95BDE}">
   <dimension ref="C3:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1670,8 +1670,14 @@
       <c r="N27" s="19"/>
       <c r="O27" s="25"/>
       <c r="P27" s="20"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
+      <c r="Q27" s="8">
+        <f>SUM(Q7:Q25)</f>
+        <v>16</v>
+      </c>
+      <c r="R27" s="8">
+        <f>SUM(R7:R25)</f>
+        <v>30</v>
+      </c>
       <c r="S27" s="8"/>
     </row>
     <row r="28" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">

--- a/generated-tests/firebrigade/frontend/direct/metrics.xlsx
+++ b/generated-tests/firebrigade/frontend/direct/metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\Desktop\Bachelor-Arbeit\test-generation-app\generated-tests\firebrigade\frontend\direct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8E8957-DD54-44F5-A5DC-70FB8C4A9DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1312A94D-01B1-4ED2-83D0-155EF8B8616B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73C55193-3CB0-42EF-A4B9-F7B9A2E05BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>Test</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t xml:space="preserve">Assign task, Take task, Create task in district, Create appointment in district, </t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Standardabweichung</t>
   </si>
 </sst>
 </file>
@@ -821,15 +827,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE60AEF-AC79-4BE5-B0FB-2A2449C95BDE}">
-  <dimension ref="C3:S29"/>
+  <dimension ref="C3:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="60.140625" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" customWidth="1"/>
     <col min="6" max="18" width="15.7109375" customWidth="1"/>
@@ -1743,6 +1749,78 @@
       <c r="R29" s="33"/>
       <c r="S29" s="33"/>
     </row>
+    <row r="30" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C30" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="28"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33">
+        <f>MEDIAN(K7:K25)</f>
+        <v>6.5</v>
+      </c>
+      <c r="L30" s="33">
+        <f>MEDIAN(L7:L25)</f>
+        <v>8.5</v>
+      </c>
+      <c r="M30" s="33"/>
+      <c r="N30" s="30">
+        <f>MEDIAN(N7:N25)</f>
+        <v>68</v>
+      </c>
+      <c r="O30" s="31">
+        <f>MEDIAN(O7:O25)</f>
+        <v>51.5</v>
+      </c>
+      <c r="P30" s="32">
+        <f>MEDIAN(P7:P25)</f>
+        <v>67</v>
+      </c>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="33"/>
+    </row>
+    <row r="31" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C31" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="28"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33">
+        <f>ROUND(_xlfn.STDEV.P(K7:K25),1)</f>
+        <v>1.7</v>
+      </c>
+      <c r="L31" s="33">
+        <f>ROUND(_xlfn.STDEV.P(L7:L25),1)</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M31" s="33"/>
+      <c r="N31" s="30">
+        <f>ROUND(_xlfn.STDEV.P(N7:N25),1)</f>
+        <v>7.8</v>
+      </c>
+      <c r="O31" s="31">
+        <f>ROUND(_xlfn.STDEV.P(O7:O25),1)</f>
+        <v>6.9</v>
+      </c>
+      <c r="P31" s="32">
+        <f>ROUND(_xlfn.STDEV.P(P7:P25),1)</f>
+        <v>5.8</v>
+      </c>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="33"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
